--- a/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 1</t>
   </si>
@@ -61,463 +61,496 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Grabowski</t>
+    <t>Jakub Kaczmarek</t>
+  </si>
+  <si>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>Emilia Król</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>3,50</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>10,40</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>11,61</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>14,42</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>21,80</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>12,44</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>28,35</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>21,27</t>
+  </si>
+  <si>
+    <t>1,69</t>
+  </si>
+  <si>
+    <t>19,33</t>
+  </si>
+  <si>
+    <t>18,87</t>
+  </si>
+  <si>
+    <t>21,35</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>11,79</t>
+  </si>
+  <si>
+    <t>11,52</t>
+  </si>
+  <si>
+    <t>12,63</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>24,18</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>22.05.1999</t>
+  </si>
+  <si>
+    <t>14 740,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>20.05.1982</t>
+  </si>
+  <si>
+    <t>6 117,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>07.02.1995</t>
+  </si>
+  <si>
+    <t>3 105,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Wojciechowski</t>
+  </si>
+  <si>
+    <t>23.10.2005</t>
+  </si>
+  <si>
+    <t>3 205,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>15.02.2002</t>
+  </si>
+  <si>
+    <t>12 185,00 zł</t>
   </si>
   <si>
     <t>Wojciech Woźniak</t>
   </si>
   <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>Zuzanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>4,42</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>18,59</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>18,80</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>28,71</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>10,86</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>15,59</t>
-  </si>
-  <si>
-    <t>11,24</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>11,84</t>
-  </si>
-  <si>
-    <t>7,42</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>8,15</t>
-  </si>
-  <si>
-    <t>4,02</t>
-  </si>
-  <si>
-    <t>6,77</t>
-  </si>
-  <si>
-    <t>15,45</t>
-  </si>
-  <si>
-    <t>8,68</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>19.06.1976</t>
-  </si>
-  <si>
-    <t>5 950,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>14.05.1994</t>
-  </si>
-  <si>
-    <t>11 101,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>27.05.1977</t>
-  </si>
-  <si>
-    <t>3 670,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>14.08.1998</t>
-  </si>
-  <si>
-    <t>5 368,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Krawczyk</t>
-  </si>
-  <si>
-    <t>02.12.1994</t>
-  </si>
-  <si>
-    <t>9 350,00 zł</t>
+    <t>01.05.1998</t>
+  </si>
+  <si>
+    <t>6 369,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>18.05.1978</t>
+  </si>
+  <si>
+    <t>5 200,00 zł</t>
   </si>
   <si>
     <t>Mikołaj Grabowski</t>
   </si>
   <si>
-    <t>03.02.1983</t>
-  </si>
-  <si>
-    <t>4 000,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>10.10.1975</t>
-  </si>
-  <si>
-    <t>4 829,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Lis</t>
-  </si>
-  <si>
-    <t>13.06.1984</t>
-  </si>
-  <si>
-    <t>7 301,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Nowak</t>
-  </si>
-  <si>
-    <t>15.01.1980</t>
-  </si>
-  <si>
-    <t>8 546,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Szymański</t>
-  </si>
-  <si>
-    <t>10.04.1991</t>
-  </si>
-  <si>
-    <t>5 239,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>25.06.2004</t>
-  </si>
-  <si>
-    <t>7 334,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>20.09.1996</t>
-  </si>
-  <si>
-    <t>4 012,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Bednarska</t>
-  </si>
-  <si>
-    <t>13.04.1998</t>
-  </si>
-  <si>
-    <t>3 214,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Piotrowski</t>
-  </si>
-  <si>
-    <t>21.02.1996</t>
-  </si>
-  <si>
-    <t>8 328,00 zł</t>
+    <t>22.06.1985</t>
+  </si>
+  <si>
+    <t>5 009,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>24.01.2000</t>
+  </si>
+  <si>
+    <t>5 893,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>01.06.1996</t>
+  </si>
+  <si>
+    <t>14 560,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>20.07.1983</t>
+  </si>
+  <si>
+    <t>13 283,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>07.03.1981</t>
+  </si>
+  <si>
+    <t>5 303,00 zł</t>
+  </si>
+  <si>
+    <t>18.10.1981</t>
+  </si>
+  <si>
+    <t>10 437,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>21.06.1978</t>
+  </si>
+  <si>
+    <t>10 509,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>27.06.1998</t>
+  </si>
+  <si>
+    <t>5 171,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>14.01.1997</t>
+  </si>
+  <si>
+    <t>8 763,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>01.01.1985</t>
+  </si>
+  <si>
+    <t>11 637,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -589,322 +622,277 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>517,00 zł</t>
-  </si>
-  <si>
-    <t>569,00 zł</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>936,00 zł</t>
+  </si>
+  <si>
+    <t>1 254,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>741,00 zł</t>
+  </si>
+  <si>
+    <t>882,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 329,00 zł</t>
+  </si>
+  <si>
+    <t>1 488,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 291,00 zł</t>
+  </si>
+  <si>
+    <t>1 794,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>1 183,00 zł</t>
+  </si>
+  <si>
+    <t>1 301,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 148,00 zł</t>
+  </si>
+  <si>
+    <t>1 424,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>503,00 zł</t>
+  </si>
+  <si>
+    <t>563,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 421,00 zł</t>
+  </si>
+  <si>
+    <t>1 719,00 zł</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>1 347,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>1 697,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>940,00 zł</t>
+  </si>
+  <si>
+    <t>1 250,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>989,00 zł</t>
+  </si>
+  <si>
+    <t>1 355,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>832,00 zł</t>
+  </si>
+  <si>
+    <t>1 040,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>1 464,00 zł</t>
+  </si>
+  <si>
+    <t>1 903,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 017,00 zł</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>947,00 zł</t>
+  </si>
+  <si>
+    <t>1 155,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>1 078,00 zł</t>
+  </si>
+  <si>
+    <t>529,00 zł</t>
+  </si>
+  <si>
+    <t>624,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 100,00 zł</t>
+  </si>
+  <si>
+    <t>1 386,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 026,00 zł</t>
+  </si>
+  <si>
+    <t>1 426,00 zł</t>
+  </si>
+  <si>
+    <t>1 295,00 zł</t>
+  </si>
+  <si>
+    <t>1 502,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>1 763,00 zł</t>
+  </si>
+  <si>
+    <t>1 234,00 zł</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>965,00 zł</t>
-  </si>
-  <si>
-    <t>1 264,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>1 882,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>1 585,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 093,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>906,00 zł</t>
-  </si>
-  <si>
-    <t>1 078,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 025,00 zł</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 256,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 022,00 zł</t>
-  </si>
-  <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>1 725,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>802,00 zł</t>
-  </si>
-  <si>
-    <t>930,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
-    <t>1 611,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>918,00 zł</t>
-  </si>
-  <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>1 788,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 225,00 zł</t>
-  </si>
-  <si>
-    <t>1 495,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>989,00 zł</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 144,00 zł</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>625,00 zł</t>
-  </si>
-  <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
-    <t>655,00 zł</t>
-  </si>
-  <si>
-    <t>812,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>945,00 zł</t>
-  </si>
-  <si>
-    <t>1 285,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>1 644,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>964,00 zł</t>
-  </si>
-  <si>
-    <t>1 109,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 094,00 zł</t>
-  </si>
-  <si>
-    <t>1 324,00 zł</t>
-  </si>
-  <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 695,00 zł</t>
+    <t>1 756,00 zł</t>
+  </si>
+  <si>
+    <t>697,00 zł</t>
+  </si>
+  <si>
+    <t>920,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1464,16 +1452,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1482,19 +1470,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1503,19 +1491,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1524,19 +1512,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1545,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>6</v>
@@ -1554,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -1566,19 +1554,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1590,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -1608,19 +1596,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1629,19 +1617,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1650,19 +1638,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1671,19 +1659,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1692,19 +1680,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1826,7 +1814,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1856,7 +1844,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1871,7 +1859,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1886,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1898,10 +1886,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1910,7 +1898,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1945,7 +1933,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1970,27 +1958,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2012,61 +2000,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2074,7 +2062,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2086,7 +2074,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2108,61 +2096,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2170,7 +2158,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2182,7 +2170,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2204,73 +2192,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2292,10 +2280,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2316,53 +2304,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2374,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2383,43 +2371,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2427,31 +2415,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2465,25 +2453,25 @@
         <v>110</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2491,31 +2479,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2523,22 +2511,22 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
         <v>6</v>
@@ -2547,30 +2535,46 @@
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2584,11 +2588,27 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,10 +2621,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +2636,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2626,170 +2646,170 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2797,50 +2817,83 @@
         <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>170</v>
+      <c r="A27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>170</v>
+      <c r="A30" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2858,10 +2911,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2877,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2887,75 +2940,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2963,22 +3016,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2986,22 +3039,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3009,22 +3062,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3032,22 +3085,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3055,22 +3108,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3081,19 +3134,19 @@
         <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3101,22 +3154,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3124,22 +3177,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3147,22 +3200,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3170,22 +3223,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3193,22 +3246,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3216,22 +3269,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3239,22 +3292,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3262,22 +3315,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3285,22 +3338,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3308,22 +3361,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3331,22 +3384,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3354,22 +3407,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3377,22 +3430,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3400,22 +3453,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3423,22 +3476,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3449,19 +3502,19 @@
         <v>200</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3469,22 +3522,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3492,22 +3545,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>249</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3515,119 +3568,59 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="A43" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="B44" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>292</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B45" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>293</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="B46" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>294</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>166</v>
+      <c r="B47" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3635,39 +3628,7 @@
         <v>295</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>299</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,33 +148,18 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,50</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,40</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
@@ -217,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>11,61</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>14,42</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>21,80</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>12,44</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>28,35</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>21,27</t>
-  </si>
-  <si>
-    <t>1,69</t>
-  </si>
-  <si>
-    <t>19,33</t>
-  </si>
-  <si>
-    <t>18,87</t>
-  </si>
-  <si>
-    <t>21,35</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>11,79</t>
-  </si>
-  <si>
-    <t>11,52</t>
-  </si>
-  <si>
-    <t>12,63</t>
-  </si>
-  <si>
-    <t>3,55</t>
-  </si>
-  <si>
-    <t>24,18</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -409,150 +334,99 @@
     <t>22.05.1999</t>
   </si>
   <si>
-    <t>14 740,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Mazur</t>
   </si>
   <si>
     <t>20.05.1982</t>
   </si>
   <si>
-    <t>6 117,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Sikorska</t>
   </si>
   <si>
     <t>07.02.1995</t>
   </si>
   <si>
-    <t>3 105,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Wojciechowski</t>
   </si>
   <si>
     <t>23.10.2005</t>
   </si>
   <si>
-    <t>3 205,00 zł</t>
-  </si>
-  <si>
     <t>Maja Górska</t>
   </si>
   <si>
     <t>15.02.2002</t>
   </si>
   <si>
-    <t>12 185,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Woźniak</t>
   </si>
   <si>
     <t>01.05.1998</t>
   </si>
   <si>
-    <t>6 369,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Kubiak</t>
   </si>
   <si>
     <t>18.05.1978</t>
   </si>
   <si>
-    <t>5 200,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Grabowski</t>
   </si>
   <si>
     <t>22.06.1985</t>
   </si>
   <si>
-    <t>5 009,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Kaźmierczak</t>
   </si>
   <si>
     <t>24.01.2000</t>
   </si>
   <si>
-    <t>5 893,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Wójcik</t>
   </si>
   <si>
     <t>01.06.1996</t>
   </si>
   <si>
-    <t>14 560,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kamiński</t>
   </si>
   <si>
     <t>20.07.1983</t>
   </si>
   <si>
-    <t>13 283,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Jaworska</t>
   </si>
   <si>
     <t>07.03.1981</t>
   </si>
   <si>
-    <t>5 303,00 zł</t>
-  </si>
-  <si>
     <t>18.10.1981</t>
   </si>
   <si>
-    <t>10 437,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kubiak</t>
   </si>
   <si>
     <t>21.06.1978</t>
   </si>
   <si>
-    <t>10 509,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Wiśniewski</t>
   </si>
   <si>
     <t>27.06.1998</t>
   </si>
   <si>
-    <t>5 171,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Grabowski</t>
   </si>
   <si>
     <t>14.01.1997</t>
   </si>
   <si>
-    <t>8 763,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>01.01.1985</t>
   </si>
   <si>
-    <t>11 637,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -565,9 +439,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -628,12 +499,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>936,00 zł</t>
-  </si>
-  <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -646,12 +511,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>741,00 zł</t>
-  </si>
-  <si>
-    <t>882,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -661,12 +520,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 488,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -676,21 +529,9 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 291,00 zł</t>
-  </si>
-  <si>
-    <t>1 794,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -700,12 +541,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -718,51 +553,21 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>503,00 zł</t>
-  </si>
-  <si>
-    <t>563,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 719,00 zł</t>
-  </si>
-  <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
-    <t>1 347,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 697,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>luty</t>
   </si>
   <si>
-    <t>940,00 zł</t>
-  </si>
-  <si>
-    <t>1 250,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -772,69 +577,30 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>989,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>832,00 zł</t>
-  </si>
-  <si>
-    <t>1 040,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 464,00 zł</t>
-  </si>
-  <si>
-    <t>1 903,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>947,00 zł</t>
-  </si>
-  <si>
-    <t>1 155,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>1 078,00 zł</t>
-  </si>
-  <si>
-    <t>529,00 zł</t>
-  </si>
-  <si>
-    <t>624,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -844,55 +610,16 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 100,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>1 502,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 763,00 zł</t>
-  </si>
-  <si>
-    <t>1 234,00 zł</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
-  </si>
-  <si>
-    <t>697,00 zł</t>
-  </si>
-  <si>
-    <t>920,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -914,7 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -971,14 +700,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -989,8 +718,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,30 +750,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1077,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,25 +1152,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1463,7 +1193,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1484,7 +1214,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1505,7 +1235,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1526,7 +1256,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1547,7 +1277,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1568,7 +1298,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1589,7 +1319,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1610,7 +1340,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1631,7 +1361,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1652,7 +1382,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1673,7 +1403,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1694,27 +1424,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1748,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1768,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1778,29 +1498,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1808,99 +1528,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.5</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5.5</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10.4</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.5</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1933,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1958,113 +1678,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11.61</v>
       </c>
       <c r="C15" s="3">
         <v>50</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14.42</v>
       </c>
       <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>21.8</v>
       </c>
       <c r="C17" s="3">
         <v>23</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>12.44</v>
       </c>
       <c r="C18" s="3">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>28.35</v>
       </c>
       <c r="C19" s="3">
         <v>27</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2073,94 +1793,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>21.27</v>
       </c>
       <c r="C24" s="3">
         <v>27</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.69</v>
       </c>
       <c r="C25" s="3">
         <v>43</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>19.33</v>
       </c>
       <c r="C26" s="3">
         <v>44</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>18.87</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>21.35</v>
       </c>
       <c r="C28" s="3">
         <v>25</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2169,98 +1889,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11.79</v>
       </c>
       <c r="C33" s="3">
         <v>41</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11.52</v>
       </c>
       <c r="C34" s="3">
         <v>45</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12.63</v>
       </c>
       <c r="C35" s="3">
         <v>49</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3.55</v>
       </c>
       <c r="C36" s="3">
         <v>48</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>24.18</v>
       </c>
       <c r="C37" s="3">
         <v>18</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2283,7 +2003,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2303,90 +2023,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2409,16 +2129,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2441,16 +2161,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2473,16 +2193,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2505,16 +2225,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2537,16 +2257,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -2569,40 +2289,40 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2635,266 +2355,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14740</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12185</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5009</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14560</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="C21" s="7">
+        <v>13283</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5303</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10437</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10509</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5171</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8763</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11637</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>177</v>
+      <c r="A30" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2929,86 +2643,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>182</v>
+      <c r="A1" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>199</v>
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3016,22 +2730,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>936</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1254</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3039,22 +2753,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="7">
+        <v>741</v>
+      </c>
+      <c r="E17" s="7">
+        <v>882</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3062,22 +2776,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1329</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1488</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3085,22 +2799,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1291</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1794</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3108,22 +2822,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1183</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1301</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3131,22 +2845,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1424</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3154,22 +2868,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="7">
+        <v>503</v>
+      </c>
+      <c r="E22" s="7">
+        <v>563</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3177,22 +2891,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1421</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1719</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3200,22 +2914,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>239</v>
+        <v>158</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1347</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3223,22 +2937,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>242</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1438</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1697</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3246,22 +2960,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>246</v>
+        <v>162</v>
+      </c>
+      <c r="D26" s="7">
+        <v>940</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1250</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3269,22 +2983,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>989</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1355</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3292,22 +3006,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
+      </c>
+      <c r="D28" s="7">
+        <v>832</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1040</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3315,22 +3029,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1464</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1903</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3338,22 +3052,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>177</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1261</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3361,22 +3075,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>265</v>
+        <v>190</v>
+      </c>
+      <c r="D31" s="7">
+        <v>947</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1155</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3384,22 +3098,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>177</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1078</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1261</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3407,22 +3121,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>168</v>
+      </c>
+      <c r="D33" s="7">
+        <v>529</v>
+      </c>
+      <c r="E33" s="7">
+        <v>624</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3430,22 +3144,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1100</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1386</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3453,22 +3167,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>278</v>
+        <v>196</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1026</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1426</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3476,22 +3190,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>190</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1295</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1502</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3499,22 +3213,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>284</v>
+        <v>198</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1763</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3522,22 +3236,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
+        <v>162</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1370</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3545,22 +3259,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>184</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1291</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1756</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3568,68 +3282,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>177</v>
+      </c>
+      <c r="D40" s="7">
+        <v>697</v>
+      </c>
+      <c r="E40" s="7">
+        <v>920</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>177</v>
+      <c r="A43" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_033.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>Julia Malinowska</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>Lena Kubiak</t>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Wojciech Wojciechowski</t>
+  </si>
+  <si>
+    <t>Filip Kozłowski</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 33 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
+    <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,40 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Anna</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
   </si>
   <si>
     <t>Jaworska</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Nowak</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -328,103 +338,43 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>22.05.1999</t>
-  </si>
-  <si>
-    <t>Kacper Mazur</t>
-  </si>
-  <si>
-    <t>20.05.1982</t>
-  </si>
-  <si>
-    <t>Emilia Sikorska</t>
-  </si>
-  <si>
-    <t>07.02.1995</t>
-  </si>
-  <si>
-    <t>Wojciech Wojciechowski</t>
-  </si>
-  <si>
-    <t>23.10.2005</t>
-  </si>
-  <si>
-    <t>Maja Górska</t>
-  </si>
-  <si>
-    <t>15.02.2002</t>
-  </si>
-  <si>
-    <t>Wojciech Woźniak</t>
-  </si>
-  <si>
-    <t>01.05.1998</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>18.05.1978</t>
-  </si>
-  <si>
-    <t>Mikołaj Grabowski</t>
-  </si>
-  <si>
-    <t>22.06.1985</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>24.01.2000</t>
-  </si>
-  <si>
-    <t>Szymon Wójcik</t>
-  </si>
-  <si>
-    <t>01.06.1996</t>
-  </si>
-  <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>20.07.1983</t>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
   </si>
   <si>
     <t>Emilia Jaworska</t>
   </si>
   <si>
-    <t>07.03.1981</t>
-  </si>
-  <si>
-    <t>18.10.1981</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>21.06.1978</t>
-  </si>
-  <si>
-    <t>Wojciech Wiśniewski</t>
-  </si>
-  <si>
-    <t>27.06.1998</t>
-  </si>
-  <si>
-    <t>Aleksander Grabowski</t>
-  </si>
-  <si>
-    <t>14.01.1997</t>
-  </si>
-  <si>
-    <t>Wojciech Kwiatkowski</t>
-  </si>
-  <si>
-    <t>01.01.1985</t>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Emilia Wójcik</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Amelia Rogalska</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -439,7 +389,58 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>Aleksander Lewandowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -493,133 +494,160 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>marzec</t>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
+    <t>Procesor i5</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -691,7 +719,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +742,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -761,13 +783,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1074,7 +1095,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1182,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1200,19 +1221,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1221,19 +1242,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1242,13 +1263,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
@@ -1263,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1284,19 +1305,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1305,19 +1326,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1326,16 +1347,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -1356,10 +1377,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1368,16 +1389,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
         <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1389,19 +1410,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1413,16 +1434,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1435,6 +1456,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1468,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5.2</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10.4</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21.1</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.5</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4.3</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14.6</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1637,10 +1664,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,27 +1705,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,85 +1733,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>11.61</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>15.63</v>
       </c>
       <c r="C15" s="3">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>14.42</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>28.07</v>
       </c>
       <c r="C16" s="3">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>21.8</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>12.44</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>18.42</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>28.35</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>23.58</v>
       </c>
       <c r="C19" s="3">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1793,8 +1820,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1802,85 +1829,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>21.27</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.1</v>
       </c>
       <c r="C24" s="3">
-        <v>27</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1.69</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4.54</v>
       </c>
       <c r="C25" s="3">
-        <v>43</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>19.33</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30</v>
       </c>
       <c r="C26" s="3">
-        <v>44</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>18.87</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26.2</v>
       </c>
       <c r="C27" s="3">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>21.35</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27.69</v>
       </c>
       <c r="C28" s="3">
-        <v>25</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1889,8 +1916,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,89 +1925,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>11.79</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>27.44</v>
       </c>
       <c r="C33" s="3">
-        <v>41</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11.52</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5.14</v>
       </c>
       <c r="C34" s="3">
         <v>45</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>12.63</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6.97</v>
       </c>
       <c r="C35" s="3">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>3.55</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>24.18</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4.02</v>
       </c>
       <c r="C37" s="3">
-        <v>18</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2023,111 +2058,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2135,31 +2170,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2167,31 +2202,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2199,28 +2234,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>6</v>
@@ -2231,31 +2266,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2263,38 +2298,38 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2310,7 +2345,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2341,10 +2376,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,260 +2390,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7">
-        <v>14740</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14182</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6117</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="7">
-        <v>3105</v>
+      <c r="B13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14587</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3205</v>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="7">
-        <v>12185</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5972</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6369</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8759</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5200</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7947</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5009</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14081</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5893</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5922</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14560</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9048</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="7">
-        <v>13283</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2981</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5303</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4379</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10437</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="7">
-        <v>8763</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8529</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="7">
-        <v>11637</v>
-      </c>
+      <c r="A27" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2625,10 +2627,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>145</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>171</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>196</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>151</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>184</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>170</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>128</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>111</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>149</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>161</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2643,12 +2820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2735,11 +2912,11 @@
       <c r="C16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="7">
-        <v>936</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1254</v>
+      <c r="D16" s="8">
+        <v>1131</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1402</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>159</v>
@@ -2758,11 +2935,11 @@
       <c r="C17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="7">
-        <v>741</v>
-      </c>
-      <c r="E17" s="7">
-        <v>882</v>
+      <c r="D17" s="8">
+        <v>918</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1047</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>163</v>
@@ -2776,22 +2953,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1329</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1488</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1375</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1568</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2799,22 +2976,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1102</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1521</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="7">
-        <v>1291</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1794</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2825,19 +3002,19 @@
         <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1183</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1301</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1282</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1538</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2845,22 +3022,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1148</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1424</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1049</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1269</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2868,22 +3045,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="7">
-        <v>503</v>
-      </c>
-      <c r="E22" s="7">
-        <v>563</v>
+      <c r="D22" s="8">
+        <v>1444</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1617</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2891,22 +3068,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1421</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1719</v>
+        <v>179</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1495</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1809</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2914,22 +3091,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1061</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1347</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="8">
+        <v>957</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1081</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2937,22 +3114,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
+        <v>184</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1261</v>
+      </c>
+      <c r="E25" s="8">
         <v>1438</v>
       </c>
-      <c r="E25" s="7">
-        <v>1697</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2960,22 +3137,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="7">
-        <v>940</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1250</v>
+        <v>166</v>
+      </c>
+      <c r="D26" s="8">
+        <v>885</v>
+      </c>
+      <c r="E26" s="8">
+        <v>982</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2983,22 +3160,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>989</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1355</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="8">
+        <v>641</v>
+      </c>
+      <c r="E27" s="8">
+        <v>872</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3006,22 +3183,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="7">
-        <v>832</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1040</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1182</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1418</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3029,22 +3206,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1464</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1903</v>
+        <v>179</v>
+      </c>
+      <c r="D29" s="8">
+        <v>865</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1029</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3052,22 +3229,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1017</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1261</v>
+        <v>192</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1275</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1428</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3075,22 +3252,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="7">
-        <v>947</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1155</v>
+        <v>193</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1027</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1304</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3098,22 +3275,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1078</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1261</v>
+        <v>182</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1118</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1364</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3121,22 +3298,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="7">
-        <v>529</v>
-      </c>
-      <c r="E33" s="7">
-        <v>624</v>
+        <v>193</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1307</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1817</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3144,22 +3321,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1386</v>
+        <v>199</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1275</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1709</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3167,22 +3344,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1026</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1426</v>
+        <v>200</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1333</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1706</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3190,22 +3367,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1295</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1502</v>
+        <v>192</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1015</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1137</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3216,19 +3393,19 @@
         <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1296</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1763</v>
+        <v>158</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1053</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1285</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3236,22 +3413,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1370</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1320</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1505</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3259,22 +3436,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1291</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1756</v>
+        <v>176</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1061</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1337</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3282,58 +3459,127 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="8">
+        <v>557</v>
+      </c>
+      <c r="E40" s="8">
+        <v>641</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1063</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1350</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="8">
+        <v>505</v>
+      </c>
+      <c r="E42" s="8">
+        <v>707</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1327</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1672</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="7">
-        <v>697</v>
-      </c>
-      <c r="E40" s="7">
-        <v>920</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="6"/>
+      <c r="G43" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A46" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
